--- a/Leetcode_Solutions.xlsx
+++ b/Leetcode_Solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\leetcode-solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C937224-A2C4-4C19-BDB9-85DF453438C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633B4519-100F-46B6-8CBB-345293A4E786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="790" xr2:uid="{A7CB0AC4-08E2-47A7-A436-D86FFC77E6E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="790" firstSheet="2" activeTab="17" xr2:uid="{A7CB0AC4-08E2-47A7-A436-D86FFC77E6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="826">
   <si>
     <t>Statement</t>
   </si>
@@ -2604,6 +2604,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/combination-sum/solutions/16502/A-general-approach-to-backtracking-questions-in-Java-(Subsets-Permutations-Combination-Sum-Palindrome-Partitioning)/</t>
+  </si>
+  <si>
+    <t>131. Palindrome Partitioning</t>
   </si>
 </sst>
 </file>
@@ -9682,7 +9685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA924A8-9114-46BA-B39C-6743F04F80F3}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
@@ -11831,8 +11834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDF4E8D-D4E1-4180-9015-2E66B34CBB41}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11871,6 +11874,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>825</v>
+      </c>
       <c r="D4" t="s">
         <v>285</v>
       </c>
@@ -12175,10 +12181,11 @@
     <hyperlink ref="D92" r:id="rId18" xr:uid="{F571BD27-820B-45DA-A981-9C6BD4B7F718}"/>
     <hyperlink ref="A94" r:id="rId19" xr:uid="{6B8B4732-A4EB-40E8-B575-89C2D3383266}"/>
     <hyperlink ref="D99" r:id="rId20" xr:uid="{DAC5FD5B-7F61-44B2-86D1-724BD7FCE08F}"/>
+    <hyperlink ref="A4" r:id="rId21" xr:uid="{F4D4672A-4E37-4843-BC17-13D63B914955}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
-  <drawing r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -13049,7 +13056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9C6576-B939-40FE-9164-B9EF7525065D}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -13294,7 +13301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76846435-1279-41EE-B6BA-33F004CE9CD2}">
   <dimension ref="A1:D309"/>
   <sheetViews>
-    <sheetView topLeftCell="A302" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
